--- a/analyze.xlsx
+++ b/analyze.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mrobotic\毕设\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF8EAC-B0F8-44C3-A665-DBF076AC9DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42FD0C7-63F4-499E-8F0E-BCCC74D14EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="3315" windowWidth="19935" windowHeight="14340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3315" windowWidth="19935" windowHeight="14340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Task finish ratio of prosed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TP rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,6 +167,10 @@
   </si>
   <si>
     <t>任务完成率提升效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task finish ratio of proposed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +346,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Task finish ratio of prosed</c:v>
+                  <c:v>Task finish ratio of proposed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -648,7 +648,7 @@
         <c:axId val="1644739039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
+          <c:max val="1"/>
           <c:min val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -921,7 +921,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1059,7 +1059,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1311,7 +1311,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1595,7 +1595,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1720,7 +1720,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1829,7 +1829,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1886,6 +1886,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1667718912"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4145,13 +4146,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -11430,7 +11431,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11464,19 +11465,19 @@
         <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
